--- a/medicine/Pharmacie/Smith,_Kline_&_French/Smith,_Kline_&_French.xlsx
+++ b/medicine/Pharmacie/Smith,_Kline_&_French/Smith,_Kline_&_French.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Smith,_Kline_%26_French</t>
+          <t>Smith,_Kline_&amp;_French</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Smith, Kline &amp; French (SK&amp;F) puis SmithKline-RIT (à partir de 1968) était un groupe pharmaceutique américain, qui fait maintenant partie du groupe britannique GlaxoSmithKline.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Smith,_Kline_%26_French</t>
+          <t>Smith,_Kline_&amp;_French</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1830, John K. Smith (en) (✝1845) ouvre sa première pharmacie à Philadelphie (Pennsylvanie, États-Unis). 
 En 1841, son frère George se joint à lui et ils forment John K. Smith &amp; Co.
 En 1855, George Smith ouvre une seconde pharmacie à Philadelphie.
 En 1865, Mahlon Kline (en) (1846-1909), un jeune comptable, se joint à l'entreprise qui devient une décennie plus tard Smith, Kline &amp; Company.
 En 1891, cette dernière acquiert le grossiste French, Richards &amp; Co. et la compagnie est nommée Smith, Kline &amp; French.
-Un département recherche et développement est créé en 1925 ; la compagnie porte le nom Smith, Kline &amp; French Laboratories car elle se concentre plus sur la recherche à partir de 1929 : la Benzédrine (en), une amphétamine, est issue de la recherche en chimie organique cette année-là[1].
+Un département recherche et développement est créé en 1925 ; la compagnie porte le nom Smith, Kline &amp; French Laboratories car elle se concentre plus sur la recherche à partir de 1929 : la Benzédrine (en), une amphétamine, est issue de la recherche en chimie organique cette année-là.
 Dans les années 1950, la société implante un nouveau laboratoire à Philadelphie ; elle acquiert ensuite Norden Laboratories, une entreprise effectuant des recherches en santé animale.
 En 1968, Smith, Kline &amp; French acquiert les laboratoires RIT (Recherche et Industrie Thérapeutiques (en)), un fabricant de vaccins implanté en Belgique. L'entreprise est rebaptisée alors SmithKline-RIT. Elle commence à s'étendre à l'international, rachetant sept laboratoires au Canada et aux États-Unis en 1969.
 En 1982, elle acquiert Allergan, un fabricant de produits d'ophtalmologie, de neurologie et de dermatologie. Plus tard dans l'année, les sociétés Smith, Kline &amp; French et Beckman Inc. fusionnent pour former SmithKline Beckman Corporation.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Smith,_Kline_%26_French</t>
+          <t>Smith,_Kline_&amp;_French</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,9 +566,11 @@
           <t>Découverte des antihistaminiques H2</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1997 à Harlow, Angleterre, et à nouveau en 1998 à King of Prussia (Pennsylvanie), la découverte des antihistaminiques H2, par James Whyte Black et son équipe[2], a été désignée comme un International Historic Chemical Landmark, accordé conjointement par la Royal Society of Chemistry et l'American Chemical Society[1]. Introduite en Grande-Bretagne en 1976 sous le nom commercial Tagamet[1], la cimétidine est rapidement devenue le médicament d'ordonnance le plus vendu au monde[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1997 à Harlow, Angleterre, et à nouveau en 1998 à King of Prussia (Pennsylvanie), la découverte des antihistaminiques H2, par James Whyte Black et son équipe, a été désignée comme un International Historic Chemical Landmark, accordé conjointement par la Royal Society of Chemistry et l'American Chemical Society. Introduite en Grande-Bretagne en 1976 sous le nom commercial Tagamet, la cimétidine est rapidement devenue le médicament d'ordonnance le plus vendu au monde.
 </t>
         </is>
       </c>
